--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>675709.8147946539</v>
+        <v>713598.1450631762</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484441</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7636882.186714995</v>
+        <v>7662134.71378884</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>211.191039557368</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>29.64202038102331</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>114.5638420640146</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>102.5509574751976</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>145.6066928277075</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>47.72493570044018</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,16 +1060,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900533</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>216.0487927063292</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1136,22 +1136,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>59.25664966154027</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>23.47132526560836</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>18.83299669067822</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>27.9735834668218</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>163.5395542426783</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>386.0027999845005</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170561</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946036</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>237.25341860257</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773008</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>90.9796478308906</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1774,13 +1774,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>141.7034552100805</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>41.9406129737742</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>372.3046183802597</v>
       </c>
       <c r="C17" t="n">
-        <v>165.7499153537897</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2087,19 +2087,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>161.8384861377975</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>129.3727203283484</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170442</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>266.159274640147</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056504</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2716,10 +2716,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>48.28314334362848</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>124.05991163492</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888151</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>23.92593778768392</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,16 +3481,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>163.6395778340026</v>
       </c>
       <c r="W37" t="n">
-        <v>195.1526410376675</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948852</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800226</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3667,7 +3667,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>98.34385133095597</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>222.7230087310192</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3803,7 +3803,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864833</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>65.07405371603565</v>
+        <v>163.6395778340019</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>240.2737862279054</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>15.5723097241247</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>754.5521954724921</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>316.4097226559155</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>103.0854402747357</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>73.35109947343491</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230467</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230467</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.5240739230467</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489123</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797683</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756278</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>2371.712353693172</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.019692669128</v>
+        <v>2009.095403626999</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.164238080161</v>
+        <v>1604.239949038032</v>
       </c>
       <c r="X2" t="n">
-        <v>584.0217746594717</v>
+        <v>1589.137889657747</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>1180.8517659574</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397423</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106443</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>886.4031665373657</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>770.682113947452</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8041211489747</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509335</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>2351.777401776812</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>2064.821893647243</v>
       </c>
       <c r="W4" t="n">
-        <v>1131.794921203953</v>
+        <v>1792.795489233535</v>
       </c>
       <c r="X4" t="n">
-        <v>886.4031665373657</v>
+        <v>1547.403734566947</v>
       </c>
       <c r="Y4" t="n">
-        <v>886.4031665373657</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>844.4212598210011</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C5" t="n">
-        <v>810.3191910448285</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D5" t="n">
-        <v>778.4498102596771</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>748.7154694583763</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8884439079882</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1290.883659894699</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1290.068609346137</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>870.9261459254474</v>
+        <v>2621.038770124845</v>
       </c>
       <c r="Y5" t="n">
-        <v>866.6804262655048</v>
+        <v>2212.752646424498</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.0996549038641</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>800.5379433870891</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1418.750429333523</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1200.519325589756</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>973.0996549038641</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.134372851938</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.032304075766</v>
+        <v>1263.938003889275</v>
       </c>
       <c r="D8" t="n">
-        <v>922.1225192502102</v>
+        <v>1232.068623104124</v>
       </c>
       <c r="E8" t="n">
-        <v>488.3477744085054</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>60.4803448177131</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576078</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>491.8246367576078</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576078</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576078</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>946.8773380567029</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626542</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925637</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377074</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996789</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296442</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>563.9714862498893</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>544.9482572694062</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>379.0702644709289</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>379.0702644709289</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>202.3632104326851</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851274</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851274</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>102.7137111973315</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>377.4721657684671</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>795.6820475364282</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1250.734748835523</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1250.734748835523</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.403998061304</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925637</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925637</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178742</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.208264049172</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1001.181859635464</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>755.7901049688764</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>755.7901049688764</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2511.87917085155</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2073.736698034974</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1637.826913209418</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1204.052168367713</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>776.1847387769212</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
@@ -5042,25 +5042,25 @@
         <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>531.9906641340331</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1607.050630386892</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693462</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693462</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263768</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097164</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5072,19 +5072,19 @@
         <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3765.607328457494</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3346.464865036805</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2938.178741336458</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5121,10 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987285</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819535</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834761</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342131</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F13" t="n">
-        <v>121.3250519959693</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
         <v>96.73597668111518</v>
@@ -5227,22 +5227,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583903</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170195</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503607</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177156</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689265</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>931.0862686392932</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2006.146234892153</v>
       </c>
       <c r="M14" t="n">
-        <v>3140.966316773802</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N14" t="n">
-        <v>3140.966316773802</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>4121.145983344108</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
         <v>4121.145983344108</v>
@@ -5303,25 +5303,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.89235417964</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590674</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169985</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469638</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1035.891962983371</v>
+        <v>976.6306115230861</v>
       </c>
       <c r="C16" t="n">
-        <v>863.3302514665961</v>
+        <v>804.0689000063112</v>
       </c>
       <c r="D16" t="n">
-        <v>697.4522586681188</v>
+        <v>638.190907207834</v>
       </c>
       <c r="E16" t="n">
-        <v>527.694254918856</v>
+        <v>468.4329034585712</v>
       </c>
       <c r="F16" t="n">
-        <v>350.9872008806122</v>
+        <v>468.4329034585712</v>
       </c>
       <c r="G16" t="n">
-        <v>185.3959259064399</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
         <v>185.3959259064399</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1700.522007054838</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.13025238825</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y16" t="n">
-        <v>1227.710581702358</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
@@ -5519,19 +5519,19 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1902.57830921561</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>1902.57830921561</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N17" t="n">
-        <v>3028.309292652057</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O17" t="n">
-        <v>4008.488959222363</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P17" t="n">
-        <v>4836.798834055759</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3307.309789480782</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.229814098728</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819532</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>467.7901097834759</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342132</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959694</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
         <v>96.73597668111518</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583903</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503607</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177151</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168569</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351992</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526436</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847314</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939392</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5765,13 +5765,13 @@
         <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653476</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.229814098727</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C22" t="n">
-        <v>633.668102581952</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D22" t="n">
-        <v>467.7901097834747</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0321060342119</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>121.3250519959681</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2446.098318867741</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713471</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1880.709809991277</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170193</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177142</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6151,7 +6151,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6227,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1090.187678435286</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C28" t="n">
-        <v>917.6259669185114</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D28" t="n">
-        <v>751.7479741200341</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E28" t="n">
-        <v>581.9899703707714</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>405.2829163325276</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>239.6916413583553</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2593.607408118105</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2347.72796169656</v>
       </c>
       <c r="U28" t="n">
-        <v>2313.799635050031</v>
+        <v>2069.294960949665</v>
       </c>
       <c r="V28" t="n">
-        <v>2026.844126920462</v>
+        <v>1782.339452820096</v>
       </c>
       <c r="W28" t="n">
-        <v>1754.817722506753</v>
+        <v>1510.313048406387</v>
       </c>
       <c r="X28" t="n">
-        <v>1509.425967840166</v>
+        <v>1264.9212937398</v>
       </c>
       <c r="Y28" t="n">
-        <v>1282.006297154274</v>
+        <v>1037.501623053908</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903951</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736201</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751428</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258801</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.0912842876363</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>120.500009313464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1011.560997133398</v>
+        <v>970.9960463903956</v>
       </c>
       <c r="C34" t="n">
-        <v>838.9992856166232</v>
+        <v>798.4343348736205</v>
       </c>
       <c r="D34" t="n">
-        <v>673.1212928181459</v>
+        <v>632.5563420751432</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258805</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876368</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134644</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134644</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878939</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X34" t="n">
-        <v>1430.799286538277</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y34" t="n">
-        <v>1203.379615852385</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7078,7 +7078,7 @@
         <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>584.4613435928211</v>
       </c>
       <c r="F37" t="n">
         <v>407.7542895545774</v>
@@ -7102,7 +7102,7 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N37" t="n">
         <v>1783.551532113124</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008509</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1529.869425042911</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1284.477670376324</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376324</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7172,16 +7172,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7199,25 +7199,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1011.560997133398</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C40" t="n">
-        <v>838.9992856166232</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D40" t="n">
-        <v>673.1212928181459</v>
+        <v>632.5563420751427</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457407</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710512</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1948.217445618573</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1676.191041204865</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1430.799286538277</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1203.379615852385</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
         <v>5113.042013538981</v>
@@ -7445,16 +7445,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1011.560997133398</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>838.9992856166232</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>673.1212928181459</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V43" t="n">
-        <v>1948.217445618573</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1676.191041204865</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1430.799286538277</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1203.379615852386</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7655,34 +7655,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
@@ -7691,7 +7691,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.801834709349</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y46" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,16 +8058,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.380809990932</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>441.0775086564029</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>66.60785428163513</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,16 +8617,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8690,13 +8690,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
-        <v>883.5958346531006</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>706.631711544173</v>
+        <v>309.6062697457101</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>541.653892043837</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>268.0111327346216</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>11.38105307846826</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>184.7831561774887</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>268.0111327346211</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>22.23190701435007</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>227.3655273957972</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>49.731956399799</v>
       </c>
       <c r="C17" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23975,19 +23975,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>267.5985112554902</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>268.0111327346203</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>3.146865729424349</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>90.22000922290074</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>33.58904338006332</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.71657238081346</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>219.0118993322377</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="W37" t="n">
-        <v>74.15349933190393</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>69.71657238081414</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>61.36294431725464</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>219.0118993322382</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>3.146865729423844</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>227.365527395797</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>654501.6872526347</v>
+        <v>662277.0993739845</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>654501.6872526347</v>
+        <v>664478.8888987686</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655951.9310781285</v>
+        <v>664478.8888987686</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645569.3881946382</v>
+        <v>645569.3881946381</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645569.3881946381</v>
+        <v>645569.388194638</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645569.3881946382</v>
+        <v>645569.3881946381</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672813.154080229</v>
+        <v>672813.1540802291</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672813.1540802292</v>
+        <v>672813.1540802291</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672813.1540802292</v>
+        <v>672813.154080229</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672813.1540802292</v>
+        <v>672813.1540802291</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369849</v>
       </c>
       <c r="C2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369847</v>
       </c>
       <c r="D2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369847</v>
       </c>
       <c r="E2" t="n">
-        <v>290676.241333714</v>
+        <v>290676.2413337139</v>
       </c>
       <c r="F2" t="n">
         <v>290676.2413337139</v>
       </c>
       <c r="G2" t="n">
-        <v>290676.241333714</v>
+        <v>290676.2413337139</v>
       </c>
       <c r="H2" t="n">
-        <v>290676.241333714</v>
+        <v>290676.2413337139</v>
       </c>
       <c r="I2" t="n">
         <v>302943.1108789775</v>
@@ -26341,19 +26341,19 @@
         <v>302943.1108789775</v>
       </c>
       <c r="L2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="M2" t="n">
         <v>302943.1108789775</v>
       </c>
       <c r="N2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
         <v>302943.1108789776</v>
       </c>
       <c r="P2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039027</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390683</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856131</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784528</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>158092.3824742624</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511645</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>187055.8853966616</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
+        <v>52352.490199087</v>
+      </c>
+      <c r="F4" t="n">
         <v>52352.49019908699</v>
-      </c>
-      <c r="F4" t="n">
-        <v>52352.49019908695</v>
       </c>
       <c r="G4" t="n">
         <v>52352.49019908699</v>
@@ -26439,22 +26439,22 @@
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="M4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="M4" t="n">
-        <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
         <v>54561.82510962272</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="P4" t="n">
         <v>54561.82510962276</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26485,7 +26485,7 @@
         <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26509,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87028.05951111187</v>
+        <v>-126469.0662993222</v>
       </c>
       <c r="C6" t="n">
-        <v>55163.24114859795</v>
+        <v>68721.44575553098</v>
       </c>
       <c r="D6" t="n">
-        <v>48672.74591985085</v>
+        <v>86061.99012943784</v>
       </c>
       <c r="E6" t="n">
-        <v>-58994.88489504793</v>
+        <v>2992.775092068193</v>
       </c>
       <c r="F6" t="n">
-        <v>164804.4088569795</v>
+        <v>164727.8503021826</v>
       </c>
       <c r="G6" t="n">
-        <v>164804.4088569795</v>
+        <v>164727.8503021826</v>
       </c>
       <c r="H6" t="n">
-        <v>164804.4088569795</v>
+        <v>164727.8503021825</v>
       </c>
       <c r="I6" t="n">
-        <v>152298.3315307227</v>
+        <v>152275.1071913401</v>
       </c>
       <c r="J6" t="n">
-        <v>59648.58181857207</v>
+        <v>10031.99333856647</v>
       </c>
       <c r="K6" t="n">
-        <v>170663.0471635622</v>
+        <v>156825.8142563343</v>
       </c>
       <c r="L6" t="n">
-        <v>161715.4360750525</v>
+        <v>170639.8228241795</v>
       </c>
       <c r="M6" t="n">
-        <v>-16127.93944690551</v>
+        <v>35649.8782111761</v>
       </c>
       <c r="N6" t="n">
-        <v>170663.0471635624</v>
+        <v>170639.8228241796</v>
       </c>
       <c r="O6" t="n">
-        <v>170663.0471635623</v>
+        <v>170639.8228241797</v>
       </c>
       <c r="P6" t="n">
-        <v>170663.0471635623</v>
+        <v>170639.8228241797</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052314</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>220.3596474199319</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>329.3487601844884</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>56.27225233759275</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.0977132642281</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>213.3840877378042</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>367.2261030860422</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48.19697732171677</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>26.88904441359244</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>370.1803477317475</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>373.9125277973604</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>152.0030977109291</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>197.171890512211</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-3.958184084211591e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.380809990932</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>441.0775086564029</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>66.60785428163513</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,13 +35410,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
-        <v>883.5958346531006</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>706.631711544173</v>
+        <v>309.6062697457101</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>541.653892043837</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36133,16 +36133,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>860.0355415814561</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807277</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36519,10 +36519,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36595,28 +36595,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645591</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>288.7351832965069</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
